--- a/KJK/2021/kozlekedes.xlsx
+++ b/KJK/2021/kozlekedes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web\BME Tanterv\bme_tanterv\KJK\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA5D2FF-24B9-4D6B-BB4E-11D0561DFD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34C6136D-4ED0-4FF3-8915-BD0C1BB35179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{48A72216-45ED-4AEF-8B3B-CF85B16C8B40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FF6C0370-31F0-4588-840C-7D1140B46E53}"/>
   </bookViews>
   <sheets>
     <sheet name="kozlekedes" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <t>Félévközi jegy</t>
   </si>
   <si>
-    <t>Mérnöki alapismeretek</t>
+    <t>Mérnöki alapismeretek / Mérnöki alapok</t>
   </si>
   <si>
     <t>KOVRA190</t>
@@ -289,7 +289,7 @@
     <t>KOKAA138</t>
   </si>
   <si>
-    <t>KOKAA146,KOKAA139~,TE90AX53$,</t>
+    <t>KOKAA139~,TE90AX53$,</t>
   </si>
   <si>
     <t>Közlekedés-gazdaságtan A</t>
@@ -1452,11 +1452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC95443-2584-4878-8782-532BB78FFBF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F608F955-8BE2-4AA7-B880-2B92EB7DEA90}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B76" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,7 +3291,7 @@
         <v>114</v>
       </c>
       <c r="K52" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3641,7 +3641,7 @@
         <v>143</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>158</v>
       </c>
       <c r="K72" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>173</v>
       </c>
       <c r="K82" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
